--- a/Assets/Files/HydrographDataTemplate.xlsx
+++ b/Assets/Files/HydrographDataTemplate.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-22.04\home\pooya\w\KHRW-DASHBOARD\Assets\Files\Groundwater\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-22.04\home\pooya\w\dashboard\Assets\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBAD9AEF-E370-4ECA-AB6C-EC12998EA2B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CE6E8D-6229-4412-BE79-3B6259F598CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28908" yWindow="-108" windowWidth="29016" windowHeight="15816" xr2:uid="{1C20E691-FEDC-4DDF-9376-FE14AAC707BD}"/>
+    <workbookView xWindow="-28908" yWindow="-108" windowWidth="29016" windowHeight="15816" activeTab="2" xr2:uid="{1C20E691-FEDC-4DDF-9376-FE14AAC707BD}"/>
   </bookViews>
   <sheets>
     <sheet name="GeoInfo" sheetId="2" r:id="rId1"/>
     <sheet name="Data" sheetId="1" r:id="rId2"/>
+    <sheet name="Wells" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>XUTM</t>
   </si>
@@ -34,12 +35,6 @@
     <t>YUTM</t>
   </si>
   <si>
-    <t>MAHDOUDE_NAME</t>
-  </si>
-  <si>
-    <t>LOCATION_NAME</t>
-  </si>
-  <si>
     <t>ZONEUTM</t>
   </si>
   <si>
@@ -49,9 +44,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>AQUIFER_NAME</t>
-  </si>
-  <si>
     <t>LEVEL_MSL</t>
   </si>
   <si>
@@ -89,6 +81,18 @@
   </si>
   <si>
     <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>MAHDOUDE</t>
+  </si>
+  <si>
+    <t>AQUIFER</t>
+  </si>
+  <si>
+    <t>LOCATION</t>
+  </si>
+  <si>
+    <t>geometry</t>
   </si>
 </sst>
 </file>
@@ -98,7 +102,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +135,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="B Mitra"/>
+      <charset val="178"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -153,7 +163,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -195,12 +205,276 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="42">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="B Mitra"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="B Mitra"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="B Mitra"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="B Mitra"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="B Mitra"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="B Mitra"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="B Mitra"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="B Mitra"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="B Mitra"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="B Mitra"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="B Mitra"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="B Mitra"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="B Mitra"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -351,7 +625,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -370,7 +644,8 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -389,7 +664,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -728,47 +1002,68 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{605F0EEF-2587-4449-BB76-744A91B8683C}" name="Table13" displayName="Table13" ref="A1:K2" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{605F0EEF-2587-4449-BB76-744A91B8683C}" name="Table13" displayName="Table13" ref="A1:K2" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
   <autoFilter ref="A1:K2" xr:uid="{47D92E55-0C8F-40DE-A232-4C461AAFF479}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{9D5DEE88-C328-4677-8D3D-1CC93EE54576}" name="ID" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{C120709A-470D-4432-9660-E4359E62912B}" name="MAHDOUDE_NAME" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{21673562-BA39-487B-9F8C-58653E2AABE9}" name="AQUIFER_NAME" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{A034B5D8-C49D-4436-AC08-6ABDB53DCAF4}" name="LOCATION_NAME" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{2AD3FCA4-ABB3-4D1B-8B91-CCD8C2F655A0}" name="XUTM" dataDxfId="21"/>
-    <tableColumn id="9" xr3:uid="{91E11DF4-7191-49CE-A81D-71BE1B094777}" name="YUTM" dataDxfId="20" dataCellStyle="Comma"/>
-    <tableColumn id="10" xr3:uid="{7479EB79-7A7C-4364-B299-5CA06A862179}" name="ZONEUTM" dataDxfId="19" dataCellStyle="Comma"/>
-    <tableColumn id="8" xr3:uid="{0650D9A9-E841-4607-9AFC-02905FF45290}" name="X" dataDxfId="18" dataCellStyle="Comma"/>
-    <tableColumn id="11" xr3:uid="{8F567313-DCB8-4136-95D5-5DEC11AC28A1}" name="Y" dataDxfId="17" dataCellStyle="Comma"/>
-    <tableColumn id="13" xr3:uid="{BC8FEB10-A445-480C-8334-D126AE35456C}" name="LEVEL_MSL" dataDxfId="16" dataCellStyle="Comma"/>
-    <tableColumn id="14" xr3:uid="{67E1939A-40CF-47CC-B14E-47277853E3FF}" name="LEVEL_SRTM" dataDxfId="15" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{9D5DEE88-C328-4677-8D3D-1CC93EE54576}" name="ID" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{C120709A-470D-4432-9660-E4359E62912B}" name="MAHDOUDE" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{21673562-BA39-487B-9F8C-58653E2AABE9}" name="AQUIFER" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{A034B5D8-C49D-4436-AC08-6ABDB53DCAF4}" name="LOCATION" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{2AD3FCA4-ABB3-4D1B-8B91-CCD8C2F655A0}" name="XUTM" dataDxfId="35"/>
+    <tableColumn id="9" xr3:uid="{91E11DF4-7191-49CE-A81D-71BE1B094777}" name="YUTM" dataDxfId="34" dataCellStyle="Comma"/>
+    <tableColumn id="10" xr3:uid="{7479EB79-7A7C-4364-B299-5CA06A862179}" name="ZONEUTM" dataDxfId="33" dataCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{0650D9A9-E841-4607-9AFC-02905FF45290}" name="X" dataDxfId="32" dataCellStyle="Comma"/>
+    <tableColumn id="11" xr3:uid="{8F567313-DCB8-4136-95D5-5DEC11AC28A1}" name="Y" dataDxfId="31" dataCellStyle="Comma"/>
+    <tableColumn id="13" xr3:uid="{BC8FEB10-A445-480C-8334-D126AE35456C}" name="LEVEL_MSL" dataDxfId="30" dataCellStyle="Comma"/>
+    <tableColumn id="14" xr3:uid="{67E1939A-40CF-47CC-B14E-47277853E3FF}" name="LEVEL_SRTM" dataDxfId="29" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{47D92E55-0C8F-40DE-A232-4C461AAFF479}" name="Table1" displayName="Table1" ref="A1:M2" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{47D92E55-0C8F-40DE-A232-4C461AAFF479}" name="Table1" displayName="Table1" ref="A1:M2" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <autoFilter ref="A1:M2" xr:uid="{47D92E55-0C8F-40DE-A232-4C461AAFF479}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L2">
     <sortCondition ref="B2"/>
     <sortCondition ref="C2"/>
-    <sortCondition ref="E2"/>
+    <sortCondition ref="F2"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="6" xr3:uid="{D5CEC73D-60D1-4068-ACEC-156E1DCE1D3B}" name="MAHDOUDE_NAME" dataDxfId="12"/>
-    <tableColumn id="12" xr3:uid="{B5416EAC-6728-48AC-9FCF-891BE4987A0D}" name="AQUIFER_NAME" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{7358129A-5416-4405-8D01-C5FA18520307}" name="LOCATION_NAME" dataDxfId="10"/>
-    <tableColumn id="1" xr3:uid="{B4264AD6-D9ED-427B-9D46-D0AECFE7FF43}" name="YEAR_PERSIAN" dataDxfId="9"/>
-    <tableColumn id="16" xr3:uid="{14A3C0B2-EE2E-4B75-A733-DEB76AC3F7B1}" name="MONTH_PERSIAN" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{A9B88317-08A6-439A-BE52-CAF0D92F768F}" name="DAY_PERSIAN" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{53B15055-68C7-44E4-B89C-0C08F72CB6C7}" name="DATE_PERSIAN" dataDxfId="6" dataCellStyle="Comma"/>
-    <tableColumn id="11" xr3:uid="{391B65EA-408D-42B5-9D89-6F4F102FC98A}" name="YEAR_GREGORIAN" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{314EBD28-38AE-4E79-A21E-E31B82BBC375}" name="MONTH_GREGORIAN" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{606896FC-817F-49C6-8BE2-6F871089F4EB}" name="DAY_GREGORIAN" dataDxfId="3"/>
-    <tableColumn id="14" xr3:uid="{D0E411EF-08E3-4C7C-B147-1FA4CFA513AB}" name="DATE_GREGORIAN" dataDxfId="2" dataCellStyle="Comma"/>
-    <tableColumn id="15" xr3:uid="{3D10739D-F1D1-47F1-9B2B-CA84D92739C7}" name="WATER_TABLE" dataDxfId="1" dataCellStyle="Comma"/>
-    <tableColumn id="17" xr3:uid="{1AF4D720-014A-4007-8BCB-C8F2BDFE2825}" name="DESCRIPTION" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{D5CEC73D-60D1-4068-ACEC-156E1DCE1D3B}" name="MAHDOUDE" dataDxfId="26"/>
+    <tableColumn id="12" xr3:uid="{B5416EAC-6728-48AC-9FCF-891BE4987A0D}" name="AQUIFER" dataDxfId="25"/>
+    <tableColumn id="7" xr3:uid="{7358129A-5416-4405-8D01-C5FA18520307}" name="LOCATION" dataDxfId="24"/>
+    <tableColumn id="15" xr3:uid="{3D10739D-F1D1-47F1-9B2B-CA84D92739C7}" name="WATER_TABLE" dataDxfId="23" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{B4264AD6-D9ED-427B-9D46-D0AECFE7FF43}" name="YEAR_PERSIAN" dataDxfId="22"/>
+    <tableColumn id="16" xr3:uid="{14A3C0B2-EE2E-4B75-A733-DEB76AC3F7B1}" name="MONTH_PERSIAN" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{A9B88317-08A6-439A-BE52-CAF0D92F768F}" name="DAY_PERSIAN" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{53B15055-68C7-44E4-B89C-0C08F72CB6C7}" name="DATE_PERSIAN" dataDxfId="19" dataCellStyle="Comma"/>
+    <tableColumn id="11" xr3:uid="{391B65EA-408D-42B5-9D89-6F4F102FC98A}" name="YEAR_GREGORIAN" dataDxfId="18"/>
+    <tableColumn id="13" xr3:uid="{314EBD28-38AE-4E79-A21E-E31B82BBC375}" name="MONTH_GREGORIAN" dataDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{606896FC-817F-49C6-8BE2-6F871089F4EB}" name="DAY_GREGORIAN" dataDxfId="16"/>
+    <tableColumn id="14" xr3:uid="{D0E411EF-08E3-4C7C-B147-1FA4CFA513AB}" name="DATE_GREGORIAN" dataDxfId="15" dataCellStyle="Comma"/>
+    <tableColumn id="17" xr3:uid="{1AF4D720-014A-4007-8BCB-C8F2BDFE2825}" name="DESCRIPTION" dataDxfId="14"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FBD6FAD5-D3BF-4C9B-8FFD-53F2115E273B}" name="Table134" displayName="Table134" ref="A1:L2" insertRow="1" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:L2" xr:uid="{47D92E55-0C8F-40DE-A232-4C461AAFF479}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{B88DA50F-BC47-4CBB-9042-87C96DF2C367}" name="ID" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{247AA5A4-AD48-4F0F-902C-7E6A37F3DB82}" name="MAHDOUDE" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{404D3A3D-AEE8-4F5F-A6AE-B35A79766E98}" name="AQUIFER" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{6E0B5F63-F31B-4AA2-936F-4C998F7D8387}" name="LOCATION" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{4BC1DFCC-751E-4CA2-B90C-CA1ABD39A435}" name="XUTM" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{11BC94BE-9908-4624-A4AB-0B75FABD24C6}" name="YUTM" dataDxfId="6" dataCellStyle="Comma"/>
+    <tableColumn id="10" xr3:uid="{8F80C648-3DDB-45D3-806A-A8D62AF31C94}" name="ZONEUTM" dataDxfId="5" dataCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{B17AADA4-CD1E-4E55-B997-CA3D9C711FF1}" name="X" dataDxfId="4" dataCellStyle="Comma"/>
+    <tableColumn id="11" xr3:uid="{0BD9063B-9433-4430-BBAB-5E32C116299F}" name="Y" dataDxfId="3" dataCellStyle="Comma"/>
+    <tableColumn id="13" xr3:uid="{027A9A87-4B4D-4AE9-9242-8230117BBC80}" name="LEVEL_MSL" dataDxfId="2" dataCellStyle="Comma"/>
+    <tableColumn id="14" xr3:uid="{4C65554E-5327-4A4A-A4F4-4C47560267A0}" name="LEVEL_SRTM" dataDxfId="1" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{CC3849CE-FA6F-4127-8805-87B83CFFF121}" name="geometry" dataDxfId="0" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1073,8 +1368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54FDD836-E936-4393-A59B-21BB37D1D90D}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1095,16 +1390,16 @@
   <sheetData>
     <row r="1" spans="1:11" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>0</v>
@@ -1113,19 +1408,19 @@
         <v>1</v>
       </c>
       <c r="G1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>6</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -1147,7 +1442,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1155,65 +1450,65 @@
     <col min="1" max="1" width="22.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="1"/>
+    <col min="4" max="4" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D1" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="14" t="s">
+      <c r="M1" s="14" t="s">
         <v>17</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="D2" s="7"/>
-      <c r="E2" s="11"/>
-      <c r="G2" s="8"/>
-      <c r="K2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="11"/>
+      <c r="H2" s="8"/>
       <c r="L2" s="8"/>
     </row>
   </sheetData>
@@ -1224,4 +1519,80 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4713EE7-1F39-4D0C-89DA-111E3EEC8AF9}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E2" s="10"/>
+      <c r="F2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Assets/Files/HydrographDataTemplate.xlsx
+++ b/Assets/Files/HydrographDataTemplate.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-22.04\home\pooya\w\dashboard\Assets\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CE6E8D-6229-4412-BE79-3B6259F598CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642D4ADC-D1C9-47FF-A792-119615E19212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28908" yWindow="-108" windowWidth="29016" windowHeight="15816" activeTab="2" xr2:uid="{1C20E691-FEDC-4DDF-9376-FE14AAC707BD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{1C20E691-FEDC-4DDF-9376-FE14AAC707BD}"/>
   </bookViews>
   <sheets>
     <sheet name="GeoInfo" sheetId="2" r:id="rId1"/>
     <sheet name="Data" sheetId="1" r:id="rId2"/>
-    <sheet name="Wells" sheetId="4" r:id="rId3"/>
+    <sheet name="Well" sheetId="4" r:id="rId3"/>
+    <sheet name="Aquifer" sheetId="5" r:id="rId4"/>
+    <sheet name="Mahdoude" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
   <si>
     <t>XUTM</t>
   </si>
@@ -93,6 +95,12 @@
   </si>
   <si>
     <t>geometry</t>
+  </si>
+  <si>
+    <t>MAHDOUDE_C</t>
+  </si>
+  <si>
+    <t>AQUIFER_C</t>
   </si>
 </sst>
 </file>
@@ -213,7 +221,205 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="42">
+  <dxfs count="54">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="B Mitra"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="B Mitra"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="B Mitra"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="B Mitra"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="B Mitra"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="B Mitra"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="B Mitra"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="B Mitra"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="B Mitra"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="B Mitra"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1002,27 +1208,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{605F0EEF-2587-4449-BB76-744A91B8683C}" name="Table13" displayName="Table13" ref="A1:K2" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{605F0EEF-2587-4449-BB76-744A91B8683C}" name="Table13" displayName="Table13" ref="A1:K2" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
   <autoFilter ref="A1:K2" xr:uid="{47D92E55-0C8F-40DE-A232-4C461AAFF479}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{9D5DEE88-C328-4677-8D3D-1CC93EE54576}" name="ID" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{C120709A-470D-4432-9660-E4359E62912B}" name="MAHDOUDE" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{21673562-BA39-487B-9F8C-58653E2AABE9}" name="AQUIFER" dataDxfId="37"/>
-    <tableColumn id="5" xr3:uid="{A034B5D8-C49D-4436-AC08-6ABDB53DCAF4}" name="LOCATION" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{2AD3FCA4-ABB3-4D1B-8B91-CCD8C2F655A0}" name="XUTM" dataDxfId="35"/>
-    <tableColumn id="9" xr3:uid="{91E11DF4-7191-49CE-A81D-71BE1B094777}" name="YUTM" dataDxfId="34" dataCellStyle="Comma"/>
-    <tableColumn id="10" xr3:uid="{7479EB79-7A7C-4364-B299-5CA06A862179}" name="ZONEUTM" dataDxfId="33" dataCellStyle="Comma"/>
-    <tableColumn id="8" xr3:uid="{0650D9A9-E841-4607-9AFC-02905FF45290}" name="X" dataDxfId="32" dataCellStyle="Comma"/>
-    <tableColumn id="11" xr3:uid="{8F567313-DCB8-4136-95D5-5DEC11AC28A1}" name="Y" dataDxfId="31" dataCellStyle="Comma"/>
-    <tableColumn id="13" xr3:uid="{BC8FEB10-A445-480C-8334-D126AE35456C}" name="LEVEL_MSL" dataDxfId="30" dataCellStyle="Comma"/>
-    <tableColumn id="14" xr3:uid="{67E1939A-40CF-47CC-B14E-47277853E3FF}" name="LEVEL_SRTM" dataDxfId="29" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{9D5DEE88-C328-4677-8D3D-1CC93EE54576}" name="ID" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{C120709A-470D-4432-9660-E4359E62912B}" name="MAHDOUDE" dataDxfId="50"/>
+    <tableColumn id="4" xr3:uid="{21673562-BA39-487B-9F8C-58653E2AABE9}" name="AQUIFER" dataDxfId="49"/>
+    <tableColumn id="5" xr3:uid="{A034B5D8-C49D-4436-AC08-6ABDB53DCAF4}" name="LOCATION" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{2AD3FCA4-ABB3-4D1B-8B91-CCD8C2F655A0}" name="XUTM" dataDxfId="47"/>
+    <tableColumn id="9" xr3:uid="{91E11DF4-7191-49CE-A81D-71BE1B094777}" name="YUTM" dataDxfId="46" dataCellStyle="Comma"/>
+    <tableColumn id="10" xr3:uid="{7479EB79-7A7C-4364-B299-5CA06A862179}" name="ZONEUTM" dataDxfId="45" dataCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{0650D9A9-E841-4607-9AFC-02905FF45290}" name="X" dataDxfId="44" dataCellStyle="Comma"/>
+    <tableColumn id="11" xr3:uid="{8F567313-DCB8-4136-95D5-5DEC11AC28A1}" name="Y" dataDxfId="43" dataCellStyle="Comma"/>
+    <tableColumn id="13" xr3:uid="{BC8FEB10-A445-480C-8334-D126AE35456C}" name="LEVEL_MSL" dataDxfId="42" dataCellStyle="Comma"/>
+    <tableColumn id="14" xr3:uid="{67E1939A-40CF-47CC-B14E-47277853E3FF}" name="LEVEL_SRTM" dataDxfId="41" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{47D92E55-0C8F-40DE-A232-4C461AAFF479}" name="Table1" displayName="Table1" ref="A1:M2" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{47D92E55-0C8F-40DE-A232-4C461AAFF479}" name="Table1" displayName="Table1" ref="A1:M2" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
   <autoFilter ref="A1:M2" xr:uid="{47D92E55-0C8F-40DE-A232-4C461AAFF479}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L2">
     <sortCondition ref="B2"/>
@@ -1030,40 +1236,66 @@
     <sortCondition ref="F2"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="6" xr3:uid="{D5CEC73D-60D1-4068-ACEC-156E1DCE1D3B}" name="MAHDOUDE" dataDxfId="26"/>
-    <tableColumn id="12" xr3:uid="{B5416EAC-6728-48AC-9FCF-891BE4987A0D}" name="AQUIFER" dataDxfId="25"/>
-    <tableColumn id="7" xr3:uid="{7358129A-5416-4405-8D01-C5FA18520307}" name="LOCATION" dataDxfId="24"/>
-    <tableColumn id="15" xr3:uid="{3D10739D-F1D1-47F1-9B2B-CA84D92739C7}" name="WATER_TABLE" dataDxfId="23" dataCellStyle="Comma"/>
-    <tableColumn id="1" xr3:uid="{B4264AD6-D9ED-427B-9D46-D0AECFE7FF43}" name="YEAR_PERSIAN" dataDxfId="22"/>
-    <tableColumn id="16" xr3:uid="{14A3C0B2-EE2E-4B75-A733-DEB76AC3F7B1}" name="MONTH_PERSIAN" dataDxfId="21"/>
-    <tableColumn id="9" xr3:uid="{A9B88317-08A6-439A-BE52-CAF0D92F768F}" name="DAY_PERSIAN" dataDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{53B15055-68C7-44E4-B89C-0C08F72CB6C7}" name="DATE_PERSIAN" dataDxfId="19" dataCellStyle="Comma"/>
-    <tableColumn id="11" xr3:uid="{391B65EA-408D-42B5-9D89-6F4F102FC98A}" name="YEAR_GREGORIAN" dataDxfId="18"/>
-    <tableColumn id="13" xr3:uid="{314EBD28-38AE-4E79-A21E-E31B82BBC375}" name="MONTH_GREGORIAN" dataDxfId="17"/>
-    <tableColumn id="10" xr3:uid="{606896FC-817F-49C6-8BE2-6F871089F4EB}" name="DAY_GREGORIAN" dataDxfId="16"/>
-    <tableColumn id="14" xr3:uid="{D0E411EF-08E3-4C7C-B147-1FA4CFA513AB}" name="DATE_GREGORIAN" dataDxfId="15" dataCellStyle="Comma"/>
-    <tableColumn id="17" xr3:uid="{1AF4D720-014A-4007-8BCB-C8F2BDFE2825}" name="DESCRIPTION" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{D5CEC73D-60D1-4068-ACEC-156E1DCE1D3B}" name="MAHDOUDE" dataDxfId="38"/>
+    <tableColumn id="12" xr3:uid="{B5416EAC-6728-48AC-9FCF-891BE4987A0D}" name="AQUIFER" dataDxfId="37"/>
+    <tableColumn id="7" xr3:uid="{7358129A-5416-4405-8D01-C5FA18520307}" name="LOCATION" dataDxfId="36"/>
+    <tableColumn id="15" xr3:uid="{3D10739D-F1D1-47F1-9B2B-CA84D92739C7}" name="WATER_TABLE" dataDxfId="35" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{B4264AD6-D9ED-427B-9D46-D0AECFE7FF43}" name="YEAR_PERSIAN" dataDxfId="34"/>
+    <tableColumn id="16" xr3:uid="{14A3C0B2-EE2E-4B75-A733-DEB76AC3F7B1}" name="MONTH_PERSIAN" dataDxfId="33"/>
+    <tableColumn id="9" xr3:uid="{A9B88317-08A6-439A-BE52-CAF0D92F768F}" name="DAY_PERSIAN" dataDxfId="32"/>
+    <tableColumn id="8" xr3:uid="{53B15055-68C7-44E4-B89C-0C08F72CB6C7}" name="DATE_PERSIAN" dataDxfId="31" dataCellStyle="Comma"/>
+    <tableColumn id="11" xr3:uid="{391B65EA-408D-42B5-9D89-6F4F102FC98A}" name="YEAR_GREGORIAN" dataDxfId="30"/>
+    <tableColumn id="13" xr3:uid="{314EBD28-38AE-4E79-A21E-E31B82BBC375}" name="MONTH_GREGORIAN" dataDxfId="29"/>
+    <tableColumn id="10" xr3:uid="{606896FC-817F-49C6-8BE2-6F871089F4EB}" name="DAY_GREGORIAN" dataDxfId="28"/>
+    <tableColumn id="14" xr3:uid="{D0E411EF-08E3-4C7C-B147-1FA4CFA513AB}" name="DATE_GREGORIAN" dataDxfId="27" dataCellStyle="Comma"/>
+    <tableColumn id="17" xr3:uid="{1AF4D720-014A-4007-8BCB-C8F2BDFE2825}" name="DESCRIPTION" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FBD6FAD5-D3BF-4C9B-8FFD-53F2115E273B}" name="Table134" displayName="Table134" ref="A1:L2" insertRow="1" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FBD6FAD5-D3BF-4C9B-8FFD-53F2115E273B}" name="Table134" displayName="Table134" ref="A1:L2" insertRow="1" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="A1:L2" xr:uid="{47D92E55-0C8F-40DE-A232-4C461AAFF479}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{B88DA50F-BC47-4CBB-9042-87C96DF2C367}" name="ID" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{247AA5A4-AD48-4F0F-902C-7E6A37F3DB82}" name="MAHDOUDE" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{404D3A3D-AEE8-4F5F-A6AE-B35A79766E98}" name="AQUIFER" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{6E0B5F63-F31B-4AA2-936F-4C998F7D8387}" name="LOCATION" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{4BC1DFCC-751E-4CA2-B90C-CA1ABD39A435}" name="XUTM" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{11BC94BE-9908-4624-A4AB-0B75FABD24C6}" name="YUTM" dataDxfId="6" dataCellStyle="Comma"/>
-    <tableColumn id="10" xr3:uid="{8F80C648-3DDB-45D3-806A-A8D62AF31C94}" name="ZONEUTM" dataDxfId="5" dataCellStyle="Comma"/>
-    <tableColumn id="8" xr3:uid="{B17AADA4-CD1E-4E55-B997-CA3D9C711FF1}" name="X" dataDxfId="4" dataCellStyle="Comma"/>
-    <tableColumn id="11" xr3:uid="{0BD9063B-9433-4430-BBAB-5E32C116299F}" name="Y" dataDxfId="3" dataCellStyle="Comma"/>
-    <tableColumn id="13" xr3:uid="{027A9A87-4B4D-4AE9-9242-8230117BBC80}" name="LEVEL_MSL" dataDxfId="2" dataCellStyle="Comma"/>
-    <tableColumn id="14" xr3:uid="{4C65554E-5327-4A4A-A4F4-4C47560267A0}" name="LEVEL_SRTM" dataDxfId="1" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{CC3849CE-FA6F-4127-8805-87B83CFFF121}" name="geometry" dataDxfId="0" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{B88DA50F-BC47-4CBB-9042-87C96DF2C367}" name="ID" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{247AA5A4-AD48-4F0F-902C-7E6A37F3DB82}" name="MAHDOUDE" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{404D3A3D-AEE8-4F5F-A6AE-B35A79766E98}" name="AQUIFER" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{6E0B5F63-F31B-4AA2-936F-4C998F7D8387}" name="LOCATION" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{4BC1DFCC-751E-4CA2-B90C-CA1ABD39A435}" name="XUTM" dataDxfId="19"/>
+    <tableColumn id="9" xr3:uid="{11BC94BE-9908-4624-A4AB-0B75FABD24C6}" name="YUTM" dataDxfId="18" dataCellStyle="Comma"/>
+    <tableColumn id="10" xr3:uid="{8F80C648-3DDB-45D3-806A-A8D62AF31C94}" name="ZONEUTM" dataDxfId="17" dataCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{B17AADA4-CD1E-4E55-B997-CA3D9C711FF1}" name="X" dataDxfId="16" dataCellStyle="Comma"/>
+    <tableColumn id="11" xr3:uid="{0BD9063B-9433-4430-BBAB-5E32C116299F}" name="Y" dataDxfId="15" dataCellStyle="Comma"/>
+    <tableColumn id="13" xr3:uid="{027A9A87-4B4D-4AE9-9242-8230117BBC80}" name="LEVEL_MSL" dataDxfId="14" dataCellStyle="Comma"/>
+    <tableColumn id="14" xr3:uid="{4C65554E-5327-4A4A-A4F4-4C47560267A0}" name="LEVEL_SRTM" dataDxfId="13" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{CC3849CE-FA6F-4127-8805-87B83CFFF121}" name="geometry" dataDxfId="12" dataCellStyle="Comma"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{139AF5CB-9C86-45E2-A947-2B39ED1544B6}" name="Table1345" displayName="Table1345" ref="A1:E2" insertRow="1" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:E2" xr:uid="{47D92E55-0C8F-40DE-A232-4C461AAFF479}"/>
+  <tableColumns count="5">
+    <tableColumn id="2" xr3:uid="{6C7D804F-0DA3-4D15-8C67-8C57FF4EFC78}" name="MAHDOUDE" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{0DF034AC-A676-45AD-81CE-25C019708188}" name="MAHDOUDE_C" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{54B61045-EFC7-4EBD-A794-DA1C161D888B}" name="AQUIFER" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{DDB3101A-09E3-4664-9B09-6273EED99B2B}" name="AQUIFER_C" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{568A7607-23E0-4A7F-A188-FE7BB7D8B722}" name="geometry" dataDxfId="5" dataCellStyle="Comma"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{892CA4F1-CE90-409E-AF65-5AAC5FAD61D0}" name="Table13456" displayName="Table13456" ref="A1:C2" insertRow="1" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C2" xr:uid="{47D92E55-0C8F-40DE-A232-4C461AAFF479}"/>
+  <tableColumns count="3">
+    <tableColumn id="2" xr3:uid="{609DBA00-75E4-4627-A3A8-64FF59E646A5}" name="MAHDOUDE" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{B7BFAC3D-8FB9-45A8-99E0-6F74EE38373B}" name="MAHDOUDE_C" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{388432CE-2EA4-44AF-95A0-D0C997472741}" name="geometry" dataDxfId="0" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1525,8 +1757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4713EE7-1F39-4D0C-89DA-111E3EEC8AF9}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1595,4 +1827,86 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC8DCB3-0C0A-4C54-9F6E-908ECDFDEB8D}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C656AB8-01D6-43E5-8944-7575C7A3067C}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>